--- a/clean_data.xlsx
+++ b/clean_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>animals</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>74965</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>71168</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>healthy eating</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>69339</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>68738</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>66676</v>
       </c>
     </row>
